--- a/public/preprocessing/@HYustendi.xlsx
+++ b/public/preprocessing/@HYustendi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20530</v>
+        <v>23982</v>
       </c>
       <c r="C2" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>kuntadhi bukannya act ini dikenal sebagai lembaga pengumpul donasi untuk membantu teroris kan kok masih aman saja</t>
+          <t>sukandar nunggu tanding catur antara grand master indonesia vs dewa kipas secara tatap muka langsung</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'bukannya', 'act', 'ini', 'dikenal', 'sebagai', 'lembaga', 'pengumpul', 'donasi', 'untuk', 'membantu', 'teroris', 'kan', 'kok', 'masih', 'aman', 'saja']</t>
+          <t>['sukandar', 'nunggu', 'tanding', 'catur', 'antara', 'grand', 'master', 'indonesia', 'vs', 'dewa', 'kipas', 'secara', 'tatap', 'muka', 'langsung']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['sukandar', 'menunggu', 'tanding', 'catur', 'antara', 'grand', 'master', 'indonesia', 'lawan', 'dewa', 'kipas', 'secara', 'tatap', 'muka', 'langsung']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'act', 'dikenal', 'lembaga', 'pengumpul', 'donasi', 'membantu', 'teroris', 'aman']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'act', 'kenal', 'lembaga', 'kumpul', 'donasi', 'bantu', 'teroris', 'aman']</t>
+          <t>['sukandar', 'menunggu', 'tanding', 'catur', 'grand', 'master', 'indonesia', 'lawan', 'dewa', 'kipas', 'tatap', 'muka', 'langsung']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['sukandar', 'tunggu', 'tanding', 'catur', 'grand', 'master', 'indonesia', 'lawan', 'dewa', 'kipas', 'tatap', 'muka', 'langsung']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20531</v>
+        <v>23983</v>
       </c>
       <c r="C3" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>timor leste sampai sekarang juga negara miskin ga ada perkembangan sama sekali</t>
+          <t>sukandar akui saja kalau kalah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['timor', 'leste', 'sampai', 'sekarang', 'juga', 'negara', 'miskin', 'ga', 'ada', 'perkembangan', 'sama', 'sekali']</t>
+          <t>['sukandar', 'akui', 'saja', 'kalau', 'kalah']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['sukandar', 'akui', 'saja', 'kalau', 'kalah']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['timor', 'leste', 'negara', 'miskin', 'perkembangan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['timor', 'leste', 'negara', 'miskin', 'kembang']</t>
+          <t>['sukandar', 'akui', 'kalah']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['sukandar', 'aku', 'kalah']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20532</v>
+        <v>23984</v>
       </c>
       <c r="C4" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>coba botol  miras di uncalno nang ndasmu piye atos utowo nyenyek botol  miras mengko lak eruh</t>
+          <t>belut listrik lumayan jadi sumber listrik lampu</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['coba', 'botol', 'miras', 'di', 'uncalno', 'nang', 'ndasmu', 'piye', 'atos', 'utowo', 'nyenyek', 'botol', 'miras', 'mengko', 'lak', 'eruh']</t>
+          <t>['belut', 'listrik', 'lumayan', 'jadi', 'sumber', 'listrik', 'lampu']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['belut', 'listrik', 'lumayan', 'jadi', 'sumber', 'listrik', 'lampu']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['coba', 'botol', 'miras', 'uncalno', 'nang', 'ndasmu', 'piye', 'atos', 'utowo', 'nyenyek', 'botol', 'miras', 'mengko', 'lak', 'eruh']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['coba', 'botol', 'miras', 'uncalno', 'nang', 'ndasmu', 'piye', 'atos', 'utowo', 'nyenyek', 'botol', 'miras', 'mengko', 'lak', 'eruh']</t>
+          <t>['belut', 'listrik', 'lumayan', 'sumber', 'listrik', 'lampu']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['belut', 'listrik', 'lumayan', 'sumber', 'listrik', 'lampu']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20533</v>
+        <v>23985</v>
       </c>
       <c r="C5" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>rt tutorial negosiasi minta kenaikan gaji</t>
+          <t>rt cluster di kopenhagen denmark maksudnya apa ya kok cluster nya dibuat lingkaran</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['rt', 'tutorial', 'negosiasi', 'minta', 'kenaikan', 'gaji']</t>
+          <t>['rt', 'cluster', 'di', 'kopenhagen', 'denmark', 'maksudnya', 'apa', 'ya', 'kok', 'cluster', 'nya', 'dibuat', 'lingkaran']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'cluster', 'di', 'kopenhagen', 'denmark', 'maksudnya', 'apa', 'ya', 'kok', 'cluster', 'nya', 'dibuat', 'lingkaran']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['tutorial', 'negosiasi', 'kenaikan', 'gaji']</t>
+          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['tutorial', 'negosiasi', 'naik', 'gaji']</t>
+          <t>['cluster', 'kopenhagen', 'denmark', 'maksudnya', 'cluster', 'lingkaran']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['cluster', 'kopenhagen', 'denmark', 'maksud', 'cluster', 'lingkar']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20534</v>
+        <v>23986</v>
       </c>
       <c r="C6" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>soem tenang semua dosa sudah ditebus oleh darah kristus maka dari itu janganlah berbuat dosa lagi</t>
+          <t>supaya kalo terjadi bencana zombie bisa teratasi dengan mudah</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['soem', 'tenang', 'semua', 'dosa', 'sudah', 'ditebus', 'oleh', 'darah', 'kristus', 'maka', 'dari', 'itu', 'janganlah', 'berbuat', 'dosa', 'lagi']</t>
+          <t>['supaya', 'kalo', 'terjadi', 'bencana', 'zombie', 'bisa', 'teratasi', 'dengan', 'mudah']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['supaya', 'kalau', 'terjadi', 'bencana', 'zombie', 'bisa', 'teratasi', 'dengan', 'mudah']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['soem', 'tenang', 'dosa', 'ditebus', 'darah', 'kristus', 'berbuat', 'dosa']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['soem', 'tenang', 'dosa', 'tebus', 'darah', 'kristus', 'buat', 'dosa']</t>
+          <t>['bencana', 'zombie', 'teratasi', 'mudah']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['bencana', 'zombie', 'atas', 'mudah']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20535</v>
+        <v>23987</v>
       </c>
       <c r="C7" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ini kan niru wc jaman romawi</t>
+          <t>kecuali kalo kamu yg ajak mutualan yaak aseli</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['ini', 'kan', 'niru', 'wc', 'jaman', 'romawi']</t>
+          <t>['kecuali', 'kalo', 'kamu', 'yg', 'ajak', 'mutualan', 'yaak', 'aseli']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['kecuali', 'kalau', 'kamu', 'yang', 'ajak', 'mutualan', 'ya', 'aseli']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['niru', 'wc', 'jaman', 'romawi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['niru', 'wc', 'jaman', 'romawi']</t>
+          <t>['kecuali', 'ajak', 'mutualan', 'aseli']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['kecuali', 'ajak', 'mutualan', 'aseli']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20536</v>
+        <v>23988</v>
       </c>
       <c r="C8" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dan si novel baswedan yg bikin kabur harun masiku</t>
+          <t>lombok org papua</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['dan', 'si', 'novel', 'baswedan', 'yg', 'bikin', 'kabur', 'harun', 'masiku']</t>
+          <t>['lombok', 'org', 'papua']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['lombok', 'orang', 'papua']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['novel', 'baswedan', 'kabur', 'harun', 'masiku']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['novel', 'baswedan', 'kabur', 'harun', 'mas']</t>
+          <t>['lombok', 'orang', 'papua']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['lombok', 'orang', 'papua']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20537</v>
+        <v>23989</v>
       </c>
       <c r="C9" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>carilah lelaki yg paham tentang tanggung jawab lelaki bukan yg hanya paham agama sajapaham agama</t>
+          <t>nixon yg penting sosisnya dulu berapa cm cewek  mau punya laki yg sosis mini</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['carilah', 'lelaki', 'yg', 'paham', 'tentang', 'tanggung', 'jawab', 'lelaki', 'bukan', 'yg', 'hanya', 'paham', 'agama', 'sajapaham', 'agama']</t>
+          <t>['nixon', 'yg', 'penting', 'sosisnya', 'dulu', 'berapa', 'cm', 'cewek', 'mau', 'punya', 'laki', 'yg', 'sosis', 'mini']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['nixon', 'yang', 'penting', 'sosisnya', 'dulu', 'berapa', 'cuma', 'cewek', 'mau', 'punya', 'laki', 'yang', 'sosis', 'mini']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['carilah', 'lelaki', 'paham', 'tanggung', 'lelaki', 'paham', 'agama', 'sajapaham', 'agama']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['cari', 'lelaki', 'paham', 'tanggung', 'lelaki', 'paham', 'agama', 'sajapaham', 'agama']</t>
+          <t>['nixon', 'sosisnya', 'cewek', 'laki', 'sosis', 'mini']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['nixon', 'sosis', 'cewek', 'laki', 'sosis', 'mini']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20538</v>
+        <v>23990</v>
       </c>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>kok selalu berkurang apa aku kena setrap twitter</t>
+          <t>mrt foto  sopo di colong iku</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['kok', 'selalu', 'berkurang', 'apa', 'aku', 'kena', 'setrap', 'twitter']</t>
+          <t>['mrt', 'foto', 'sopo', 'di', 'colong', 'iku']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mrt', 'foto', 'siapa', 'di', 'colong', 'ikut']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['berkurang', 'kena', 'setrap', 'twitter']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['kurang', 'kena', 'setrap', 'twitter']</t>
+          <t>['mrt', 'foto', 'colong']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['mrt', 'foto', 'colong']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20539</v>
+        <v>23991</v>
       </c>
       <c r="C11" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>nama itu orang berpengaruh kah</t>
+          <t>gt</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['nama', 'itu', 'orang', 'berpengaruh', 'kah']</t>
+          <t>['gt']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['begitu']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['nama', 'orang', 'berpengaruh', 'kah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['nama', 'orang', 'pengaruh', 'kah']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20540</v>
+        <v>23992</v>
       </c>
       <c r="C12" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ada yg pernah pulang pergi ke surga</t>
+          <t>dan an itu juga gabung jadi anggota fpi toh</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['ada', 'yg', 'pernah', 'pulang', 'pergi', 'ke', 'surga']</t>
+          <t>['dan', 'an', 'itu', 'juga', 'gabung', 'jadi', 'anggota', 'fpi', 'toh']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['dan', 'an', 'itu', 'juga', 'gabung', 'jadi', 'anggota', 'front, pembela, islam', 'toh']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['pulang', 'pergi', 'surga']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['pulang', 'pergi', 'surga']</t>
+          <t>['an', 'gabung', 'anggota', 'front, pembela, islam']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['an', 'gabung', 'anggota', 'front bela islam']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20541</v>
+        <v>23993</v>
       </c>
       <c r="C13" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>nng aduuhhhhsayang sekali</t>
+          <t xml:space="preserve">rt jahatnya keluarga cendana benar atau tidak hanya tuhan dan eno sigit yang tau andai ini hoax pastilah eno akan tuntut </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['nng', 'aduuhhhhsayang', 'sekali']</t>
+          <t>['rt', 'jahatnya', 'keluarga', 'cendana', 'benar', 'atau', 'tidak', 'hanya', 'tuhan', 'dan', 'eno', 'sigit', 'yang', 'tau', 'andai', 'ini', 'hoax', 'pastilah', 'eno', 'akan', 'tuntut']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'jahatnya', 'keluarga', 'cendana', 'benar', 'atau', 'tidak', 'hanya', 'tuhan', 'dan', 'eno', 'sigit', 'yang', 'tau', 'andai', 'ini', 'hoaks', 'pastilah', 'eno', 'akan', 'tuntut']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['nng', 'aduuhhhhsayang']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['nng', 'aduuhhhhsayang']</t>
+          <t>['jahatnya', 'keluarga', 'cendana', 'tuhan', 'eno', 'sigit', 'andai', 'hoaks', 'eno', 'tuntut']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['jahat', 'keluarga', 'cendana', 'tuhan', 'eno', 'sigit', 'andai', 'hoaks', 'eno', 'tuntut']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20542</v>
+        <v>23994</v>
       </c>
       <c r="C14" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>is harley davidson</t>
+          <t>id haleluya takeabeer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['is', 'harley', 'davidson']</t>
+          <t>['id', 'haleluya', 'takeabeer']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['id', 'haleluya', 'takeabeer']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['is', 'harley', 'davidson']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['is', 'harley', 'davidson']</t>
+          <t>['id', 'haleluya', 'takeabeer']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['id', 'haleluya', 'takeabeer']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20543</v>
+        <v>23995</v>
       </c>
       <c r="C15" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>as setan minum es degan aja</t>
+          <t>nrs dancoookkkk</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['as', 'setan', 'minum', 'es', 'degan', 'aja']</t>
+          <t>['nrs', 'dancoookkkk']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['nrs', 'dancoookkkk']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['as', 'setan', 'minum', 'es', 'degan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['as', 'setan', 'minum', 'es', 'degan']</t>
+          <t>['nrs', 'dancoookkkk']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['nrs', 'dancoookkkk']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20544</v>
+        <v>23996</v>
       </c>
       <c r="C16" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ri jangan lupakan juga ada chaplin di balik layar</t>
+          <t>sepertinya takut korupsi duit dari perbaikan jalan terungkap</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['ri', 'jangan', 'lupakan', 'juga', 'ada', 'chaplin', 'di', 'balik', 'layar']</t>
+          <t>['sepertinya', 'takut', 'korupsi', 'duit', 'dari', 'perbaikan', 'jalan', 'terungkap']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['sepertinya', 'takut', 'korupsi', 'duit', 'dari', 'perbaikan', 'jalan', 'terungkap']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['ri', 'lupakan', 'chaplin', 'layar']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['ri', 'lupa', 'chaplin', 'layar']</t>
+          <t>['takut', 'korupsi', 'duit', 'perbaikan', 'jalan', 'terungkap']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['takut', 'korupsi', 'duit', 'baik', 'jalan', 'ungkap']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20545</v>
+        <v>23997</v>
       </c>
       <c r="C17" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sayangilah anjing</t>
+          <t>saksi kunci kasus korupsi hambalang juga tiba mendadak mati gitu saja</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['sayangilah', 'anjing']</t>
+          <t>['saksi', 'kunci', 'kasus', 'korupsi', 'hambalang', 'juga', 'tiba', 'mendadak', 'mati', 'gitu', 'saja']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['saksi', 'kunci', 'kasus', 'korupsi', 'hambalang', 'juga', 'tiba', 'mendadak', 'mati', 'begitu', 'saja']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['sayangilah', 'anjing']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['sayang', 'anjing']</t>
+          <t>['saksi', 'kunci', 'korupsi', 'hambalang', 'mendadak', 'mati']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['saksi', 'kunci', 'korupsi', 'hambalang', 'dadak', 'mati']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20546</v>
+        <v>23998</v>
       </c>
       <c r="C18" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>hoax</t>
+          <t>only one</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['hoax']</t>
+          <t>['only', 'one']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['only', 'one']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['hoax']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['hoax']</t>
+          <t>['only', 'one']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['only', 'one']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20547</v>
+        <v>23999</v>
       </c>
       <c r="C19" t="n">
-        <v>248</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>rt kuntadhi jadi yang menolak perpres itu justru menolak pembatasan investasi baru pd minuman beralkohol belum lama misalnya di</t>
-        </is>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'jadi', 'yang', 'menolak', 'perpres', 'itu', 'justru', 'menolak', 'pembatasan', 'investasi', 'baru', 'pd', 'minuman', 'beralkohol', 'belum', 'lama', 'misalnya', 'di']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'menolak', 'perpres', 'menolak', 'pembatasan', 'investasi', 'pd', 'minuman', 'beralkohol']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'tolak', 'pres', 'tolak', 'batas', 'investasi', 'pd', 'minum', 'alkohol']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1214,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20548</v>
+        <v>24000</v>
       </c>
       <c r="C20" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>kota mana</t>
+          <t>follback ya</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['kota', 'mana']</t>
+          <t>['follback', 'ya']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['ikuti', 'ya']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['kota']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kota']</t>
+          <t>['ikuti']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['ikut']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1255,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20549</v>
+        <v>24001</v>
       </c>
       <c r="C21" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>yakin kah yg hitam ini asli perempuan</t>
+          <t>kuntadhi mungkin baterai nya belum di cas ini</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['yakin', 'kah', 'yg', 'hitam', 'ini', 'asli', 'perempuan']</t>
+          <t>['kuntadhi', 'mungkin', 'baterai', 'nya', 'belum', 'di', 'cas', 'ini']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kuntadhi', 'mungkin', 'baterai', 'nya', 'belum', 'di', 'cas', 'ini']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['kah', 'hitam', 'asli', 'perempuan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['kah', 'hitam', 'asli', 'perempuan']</t>
+          <t>['kuntadhi', 'baterai', 'cas']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'baterai', 'cas']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1296,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20550</v>
+        <v>24002</v>
       </c>
       <c r="C22" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>takuut</t>
+          <t>udah di private</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['takuut']</t>
+          <t>['udah', 'di', 'private']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['sudah', 'di', 'private']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['takuut']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['takuut']</t>
+          <t>['private']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['private']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1337,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20551</v>
+        <v>24003</v>
       </c>
       <c r="C23" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>berita lama itu dan sudah ada klarifikasi mya</t>
+          <t>cuman berapa ratus unit tuh selama tahun menjabat targetnya berapa ribu unit tohkerja atau cangkrukan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['berita', 'lama', 'itu', 'dan', 'sudah', 'ada', 'klarifikasi', 'mya']</t>
+          <t>['cuman', 'berapa', 'ratus', 'unit', 'tuh', 'selama', 'tahun', 'menjabat', 'targetnya', 'berapa', 'ribu', 'unit', 'tohkerja', 'atau', 'cangkrukan']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['cuma', 'berapa', 'ratus', 'unit', 'itu', 'selama', 'tahun', 'menjabat', 'targetnya', 'berapa', 'ribu', 'unit', 'tohkerja', 'atau', 'cangkrukan']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['berita', 'klarifikasi', 'mya']</t>
+          <t>&lt;FreqDist with 13 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['berita', 'klarifikasi', 'mya']</t>
+          <t>['ratus', 'unit', 'menjabat', 'targetnya', 'ribu', 'unit', 'tohkerja', 'cangkrukan']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['ratus', 'unit', 'jabat', 'target', 'ribu', 'unit', 'tohkerja', 'cangkrukan']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1378,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20552</v>
+        <v>24004</v>
       </c>
       <c r="C24" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>justru cewek suka cowok yg jago mainin pentil ban</t>
+          <t>djojoning atau di sembelih aja dikorbankan pengganti domba</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['justru', 'cewek', 'suka', 'cowok', 'yg', 'jago', 'mainin', 'pentil', 'ban']</t>
+          <t>['djojoning', 'atau', 'di', 'sembelih', 'aja', 'dikorbankan', 'pengganti', 'domba']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['djojoning', 'atau', 'di', 'sembelih', 'saja', 'dikorbankan', 'pengganti', 'domba']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['cewek', 'suka', 'cowok', 'jago', 'mainin', 'pentil', 'ban']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['cewek', 'suka', 'cowok', 'jago', 'mainin', 'pentil', 'ban']</t>
+          <t>['djojoning', 'sembelih', 'dikorbankan', 'pengganti', 'domba']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['djojoning', 'sembelih', 'korban', 'ganti', 'domba']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1419,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20553</v>
+        <v>24005</v>
       </c>
       <c r="C25" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>uhuyy</t>
+          <t>simpel kmu bisa bikin perempuan big   itu udah lebih dari buku teori cinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['uhuyy']</t>
+          <t>['simpel', 'kmu', 'bisa', 'bikin', 'perempuan', 'big', 'itu', 'udah', 'lebih', 'dari', 'buku', 'teori', 'cinta']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['simpel', 'kamu', 'bisa', 'bikin', 'perempuan', 'besar', 'itu', 'sudah', 'lebih', 'dari', 'buku', 'teori', 'cinta']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['uhuyy']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['uhuyy']</t>
+          <t>['simpel', 'perempuan', 'buku', 'teori', 'cinta']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['simpel', 'perempuan', 'buku', 'teori', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1460,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20554</v>
+        <v>24006</v>
       </c>
       <c r="C26" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>eh tapi selangkangan cewek halal buat pks</t>
+          <t>carilah tuhan dengan benar bukan cari agama paling benar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['eh', 'tapi', 'selangkangan', 'cewek', 'halal', 'buat', 'pks']</t>
+          <t>['carilah', 'tuhan', 'dengan', 'benar', 'bukan', 'cari', 'agama', 'paling', 'benar']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['carilah', 'tuhan', 'dengan', 'benar', 'bukan', 'cari', 'agama', 'paling', 'benar']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['eh', 'selangkangan', 'cewek', 'halal', 'pks']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['eh', 'selangkang', 'cewek', 'halal', 'pks']</t>
+          <t>['carilah', 'tuhan', 'cari', 'agama']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['cari', 'tuhan', 'cari', 'agama']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1501,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20555</v>
+        <v>24007</v>
       </c>
       <c r="C27" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>langsung aja dirikan pdp partai demokrat perjuangan</t>
+          <t>ga usah ribet lah anggap saja sisi marketing biar semangat dalam beribadahgitu aja kok repot</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['langsung', 'aja', 'dirikan', 'pdp', 'partai', 'demokrat', 'perjuangan']</t>
+          <t>['ga', 'usah', 'ribet', 'lah', 'anggap', 'saja', 'sisi', 'marketing', 'biar', 'semangat', 'dalam', 'beribadahgitu', 'aja', 'kok', 'repot']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['tidak', 'usah', 'ribet', 'lah', 'anggap', 'saja', 'sisi', 'marketing', 'biar', 'semangat', 'dalam', 'beribadahgitu', 'saja', 'kok', 'repot']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['langsung', 'dirikan', 'pdp', 'partai', 'demokrat', 'perjuangan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['langsung', 'diri', 'pdp', 'partai', 'demokrat', 'juang']</t>
+          <t>['ribet', 'anggap', 'sisi', 'marketing', 'semangat', 'beribadahgitu', 'repot']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['ribet', 'anggap', 'sisi', 'marketing', 'semangat', 'beribadahgitu', 'repot']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1542,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20556</v>
+        <v>24008</v>
       </c>
       <c r="C28" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>sajak ngapain iri sama orang koplak macam kamu</t>
+          <t>sajak maybe terletak sangat strategis terhadap politik aussie dan politik usa yg punya kepentingan di in</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['sajak', 'ngapain', 'iri', 'sama', 'orang', 'koplak', 'macam', 'kamu']</t>
+          <t>['sajak', 'maybe', 'terletak', 'sangat', 'strategis', 'terhadap', 'politik', 'aussie', 'dan', 'politik', 'usa', 'yg', 'punya', 'kepentingan', 'di', 'in']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['sajak', 'maybe', 'terletak', 'sangat', 'strategis', 'terhadap', 'politik', 'australia', 'dan', 'politik', 'united, state, of, america', 'yang', 'punya', 'kepentingan', 'di', 'in']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['sajak', 'ngapain', 'iri', 'orang', 'koplak']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['sajak', 'ngapain', 'iri', 'orang', 'koplak']</t>
+          <t>['sajak', 'maybe', 'terletak', 'strategis', 'politik', 'australia', 'politik', 'united, state, of, america', 'kepentingan', 'in']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['sajak', 'maybe', 'letak', 'strategis', 'politik', 'australia', 'politik', 'united state of america', 'penting', 'in']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1583,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20557</v>
+        <v>24009</v>
       </c>
       <c r="C29" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>id sibencong</t>
+          <t>syakalala kalo itu sama saja jualan agama untuk memperkaya diri sendiri</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['id', 'sibencong']</t>
+          <t>['syakalala', 'kalo', 'itu', 'sama', 'saja', 'jualan', 'agama', 'untuk', 'memperkaya', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['syakalala', 'kalau', 'itu', 'sama', 'saja', 'jualan', 'agama', 'untuk', 'memperkaya', 'diri', 'sendiri']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['id', 'sibencong']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['id', 'sibencong']</t>
+          <t>['syakalala', 'jualan', 'agama', 'memperkaya']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['syakalala', 'jual', 'agama', 'kaya']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1624,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20558</v>
+        <v>24010</v>
       </c>
       <c r="C30" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>sajak pengusaha tapi pola mikir nya kayak bayi</t>
+          <t>maka dari itu saya ga suka pacaran dengan lelaki aku maunya pacaran sama perempuan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['sajak', 'pengusaha', 'tapi', 'pola', 'mikir', 'nya', 'kayak', 'bayi']</t>
+          <t>['maka', 'dari', 'itu', 'saya', 'ga', 'suka', 'pacaran', 'dengan', 'lelaki', 'aku', 'maunya', 'pacaran', 'sama', 'perempuan']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['maka', 'dari', 'itu', 'saya', 'tidak', 'suka', 'pacaran', 'dengan', 'lelaki', 'aku', 'maunya', 'pacaran', 'sama', 'perempuan']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['sajak', 'pengusaha', 'pola', 'mikir', 'kayak', 'bayi']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['sajak', 'usaha', 'pola', 'mikir', 'kayak', 'bayi']</t>
+          <t>['suka', 'pacaran', 'lelaki', 'maunya', 'pacaran', 'perempuan']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['suka', 'pacar', 'lelaki', 'mau', 'pacar', 'perempuan']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1665,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20559</v>
+        <v>24011</v>
       </c>
       <c r="C31" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sabar sini peyuk dulu</t>
+          <t>aku selow kok pake tatih tayang</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sabar', 'sini', 'peyuk', 'dulu']</t>
+          <t>['aku', 'selow', 'kok', 'pake', 'tatih', 'tayang']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['aku', 'santai', 'kok', 'pakai', 'tatih', 'tayang']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['sabar', 'peyuk']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['sabar', 'yuk']</t>
+          <t>['santai', 'pakai', 'tatih', 'tayang']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['santai', 'pakai', 'tatih', 'tayang']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1706,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20560</v>
+        <v>24012</v>
       </c>
       <c r="C32" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>mei status buat mancing ikan</t>
+          <t>sajak semua berpeluang bisa terjadi sih omhahaaha</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['mei', 'status', 'buat', 'mancing', 'ikan']</t>
+          <t>['sajak', 'semua', 'berpeluang', 'bisa', 'terjadi', 'sih', 'omhahaaha']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sajak', 'semua', 'berpeluang', 'bisa', 'terjadi', 'sih', 'omhahaaha']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['mei', 'status', 'mancing', 'ikan']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['mei', 'status', 'mancing', 'ikan']</t>
+          <t>['sajak', 'berpeluang', 'omhahaaha']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['sajak', 'peluang', 'omhahaaha']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1747,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20561</v>
+        <v>24013</v>
       </c>
       <c r="C33" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>teloor ci enggak pernah keterima jadi murid si kakekaku terlalu culun</t>
+          <t>keselek apa sih sini aku puk punggungmu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'enggak', 'pernah', 'keterima', 'jadi', 'murid', 'si', 'kakekaku', 'terlalu', 'culun']</t>
+          <t>['keselek', 'apa', 'sih', 'sini', 'aku', 'puk', 'punggungmu']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['tersedak', 'apa', 'sih', 'sini', 'aku', 'puk', 'punggungmu']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'keterima', 'murid', 'kakekaku', 'culun']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'terima', 'murid', 'kakekaku', 'culun']</t>
+          <t>['tersedak', 'puk', 'punggungmu']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['sedak', 'puk', 'punggung']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1788,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20562</v>
+        <v>24014</v>
       </c>
       <c r="C34" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>teloor ci berarti sobri pernah berguru ke kakek itu</t>
+          <t>jin nya cantik kayak kamu ga nih</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'berarti', 'sobri', 'pernah', 'berguru', 'ke', 'kakek', 'itu']</t>
+          <t>['jin', 'nya', 'cantik', 'kayak', 'kamu', 'ga', 'nih']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['jin', 'nya', 'cantik', 'kayak', 'kamu', 'tidak', 'nih']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'sobri', 'berguru', 'kakek']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['teloor', 'ci', 'sobri', 'guru', 'kakek']</t>
+          <t>['jin', 'cantik', 'kayak']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['jin', 'cantik', 'kayak']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1829,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20563</v>
+        <v>24015</v>
       </c>
       <c r="C35" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ci hmmlanjut dm</t>
+          <t>halo pak mohon di tindak lanjuti</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['ci', 'hmmlanjut', 'dm']</t>
+          <t>['halo', 'pak', 'mohon', 'di', 'tindak', 'lanjuti']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['halo', 'pak', 'mohon', 'di', 'tindak', 'lanjuti']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['ci', 'hmmlanjut', 'dm']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['ci', 'hmmlanjut', 'dm']</t>
+          <t>['halo', 'mohon', 'tindak', 'lanjuti']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['halo', 'mohon', 'tindak', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1870,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20564</v>
+        <v>24016</v>
       </c>
       <c r="C36" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ci kalo soal adobe tahu lah tapi kalo soal susu masih cupu</t>
+          <t>tidak usah menghakimi pilihan kaesang adalah salah dan burukkaesang tahu apa yg terbaik untuk hidupnya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['ci', 'kalo', 'soal', 'adobe', 'tahu', 'lah', 'tapi', 'kalo', 'soal', 'susu', 'masih', 'cupu']</t>
+          <t>['tidak', 'usah', 'menghakimi', 'pilihan', 'kaesang', 'adalah', 'salah', 'dan', 'burukkaesang', 'tahu', 'apa', 'yg', 'terbaik', 'untuk', 'hidupnya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 12 outcomes&gt;</t>
+          <t>['tidak', 'usah', 'menghakimi', 'pilihan', 'kaesang', 'adalah', 'salah', 'dan', 'burukkaesang', 'tahu', 'apa', 'yang', 'terbaik', 'untuk', 'hidupnya']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['ci', 'adobe', 'susu', 'cupu']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ci', 'adobe', 'susu', 'cupu']</t>
+          <t>['menghakimi', 'pilihan', 'kaesang', 'salah', 'burukkaesang', 'terbaik', 'hidupnya']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['hakim', 'pilih', 'kaesang', 'salah', 'burukkaesang', 'baik', 'hidup']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1911,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20565</v>
+        <v>24017</v>
       </c>
       <c r="C37" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ci serius</t>
+          <t>jalan kaki pakai kaki sendiri atau kaki orang lain om addie</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['ci', 'serius']</t>
+          <t>['jalan', 'kaki', 'pakai', 'kaki', 'sendiri', 'atau', 'kaki', 'orang', 'lain', 'om', 'addie']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['jalan', 'kaki', 'pakai', 'kaki', 'sendiri', 'atau', 'kaki', 'orang', 'lain', 'om', 'addie']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['ci', 'serius']</t>
+          <t>&lt;FreqDist with 9 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['ci', 'serius']</t>
+          <t>['jalan', 'kaki', 'pakai', 'kaki', 'kaki', 'orang', 'om', 'addie']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['jalan', 'kaki', 'pakai', 'kaki', 'kaki', 'orang', 'om', 'addie']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1952,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20566</v>
+        <v>24018</v>
       </c>
       <c r="C38" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ci aku masih cupu</t>
+          <t>presiden jokowi sampai ikut mengecam perancis karena berita hoax</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['ci', 'aku', 'masih', 'cupu']</t>
+          <t>['presiden', 'jokowi', 'sampai', 'ikut', 'mengecam', 'perancis', 'karena', 'berita', 'hoax']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['presiden', 'jokowi', 'sampai', 'ikut', 'mengecam', 'prancis', 'karena', 'berita', 'hoaks']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['ci', 'cupu']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['ci', 'cupu']</t>
+          <t>['presiden', 'jokowi', 'mengecam', 'prancis', 'berita', 'hoaks']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['presiden', 'jokowi', 'kecam', 'prancis', 'berita', 'hoaks']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1993,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20567</v>
+        <v>24019</v>
       </c>
       <c r="C39" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ci asli ne tipis cuman karena ada adobe di bikin montok</t>
+          <t>nikahnya di tanpa fasilitas negara itu yg di mau sama kaesang</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['ci', 'asli', 'ne', 'tipis', 'cuman', 'karena', 'ada', 'adobe', 'di', 'bikin', 'montok']</t>
+          <t>['nikahnya', 'di', 'tanpa', 'fasilitas', 'negara', 'itu', 'yg', 'di', 'mau', 'sama', 'kaesang']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['nikahnya', 'di', 'tanpa', 'fasilitas', 'negara', 'itu', 'yang', 'di', 'mau', 'sama', 'kaesang']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['ci', 'asli', 'ne', 'tipis', 'cuman', 'adobe', 'montok']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['ci', 'asli', 'ne', 'tipis', 'cuman', 'adobe', 'montok']</t>
+          <t>['nikahnya', 'fasilitas', 'negara', 'kaesang']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['nikah', 'fasilitas', 'negara', 'kaesang']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2034,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20568</v>
+        <v>24020</v>
       </c>
       <c r="C40" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>aku op yah lepas atribut tapi gak pake tagaran komunitas yg penting cinta nkri like rt reply we love indonesia</t>
+          <t>tepos</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['aku', 'op', 'yah', 'lepas', 'atribut', 'tapi', 'gak', 'pake', 'tagaran', 'komunitas', 'yg', 'penting', 'cinta', 'nkri', 'like', 'rt', 'reply', 'we', 'love', 'indonesia']</t>
+          <t>['tepos']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['tepos']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['op', 'lepas', 'atribut', 'pake', 'tagaran', 'komunitas', 'cinta', 'nkri', 'like', 'reply', 'we', 'love', 'indonesia']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['op', 'lepas', 'atribut', 'pake', 'tagar', 'komunitas', 'cinta', 'nkri', 'like', 'reply', 'we', 'love', 'indonesia']</t>
+          <t>['tepos']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['tepos']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2075,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20569</v>
+        <v>24021</v>
       </c>
       <c r="C41" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>karyoso ya kalo penasaran mending di ajak ketemuangitu kok repot</t>
+          <t>sajak perlu di usut juga dugaan aliran duit ke chaplinga mungkin kan kalo ga di aliri</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['karyoso', 'ya', 'kalo', 'penasaran', 'mending', 'di', 'ajak', 'ketemuangitu', 'kok', 'repot']</t>
+          <t>['sajak', 'perlu', 'di', 'usut', 'juga', 'dugaan', 'aliran', 'duit', 'ke', 'chaplinga', 'mungkin', 'kan', 'kalo', 'ga', 'di', 'aliri']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sajak', 'perlu', 'di', 'usut', 'juga', 'dugaan', 'aliran', 'duit', 'ke', 'chaplinga', 'mungkin', 'kan', 'kalau', 'tidak', 'di', 'aliri']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['karyoso', 'penasaran', 'mending', 'ajak', 'ketemuangitu', 'repot']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['karyoso', 'penasaran', 'mending', 'ajak', 'ketemuangitu', 'repot']</t>
+          <t>['sajak', 'usut', 'dugaan', 'aliran', 'duit', 'chaplinga', 'aliri']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['sajak', 'usut', 'duga', 'alir', 'duit', 'chaplinga', 'alir']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2116,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20570</v>
+        <v>24022</v>
       </c>
       <c r="C42" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sajak itu nama bisnis milik jk</t>
+          <t>avp kerajaanmu gitu lhoo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['sajak', 'itu', 'nama', 'bisnis', 'milik', 'jk']</t>
+          <t>['avp', 'kerajaanmu', 'gitu', 'lhoo']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['avp', 'kerajaanmu', 'begitu', 'lo']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['sajak', 'nama', 'bisnis', 'milik', 'jk']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['sajak', 'nama', 'bisnis', 'milik', 'jk']</t>
+          <t>['avp', 'kerajaanmu', 'lo']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['avp', 'raja', 'lo']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2157,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20571</v>
+        <v>24023</v>
       </c>
       <c r="C43" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>penembak runduk jelas memiliki stamina yg konsisten</t>
+          <t>rt hnes perlu diwaspadai jgn pernah mau dititipin apapun sm orang yg gak dikenal meskipun di bandara stasiun mall atau tempat rama</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['penembak', 'runduk', 'jelas', 'memiliki', 'stamina', 'yg', 'konsisten']</t>
+          <t>['rt', 'hnes', 'perlu', 'diwaspadai', 'jgn', 'pernah', 'mau', 'dititipin', 'apapun', 'sm', 'orang', 'yg', 'gak', 'dikenal', 'meskipun', 'di', 'bandara', 'stasiun', 'mall', 'atau', 'tempat', 'rama']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['rt', 'hnes', 'perlu', 'diwaspadai', 'jangan', 'pernah', 'mau', 'dititipin', 'apapun', 'sama', 'orang', 'yang', 'tidak', 'dikenal', 'meskipun', 'di', 'bandara', 'stasiun', 'mal', 'atau', 'tempat', 'rama']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['penembak', 'runduk', 'memiliki', 'stamina', 'konsisten']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['tembak', 'runduk', 'milik', 'stamina', 'konsisten']</t>
+          <t>['hnes', 'diwaspadai', 'dititipin', 'apapun', 'orang', 'dikenal', 'bandara', 'stasiun', 'mal', 'rama']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['hnes', 'waspada', 'dititipin', 'apa', 'orang', 'kenal', 'bandara', 'stasiun', 'mal', 'rama']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2198,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20572</v>
+        <v>24024</v>
       </c>
       <c r="C44" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt seger banget emang siang ditemani minuman bersoda ati tapi ya selain gula obviously ada kandungan lain dari minuman </t>
+          <t>teloor kirimin paku dan silet aja bro</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'seger', 'banget', 'emang', 'siang', 'ditemani', 'minuman', 'bersoda', 'ati', 'tapi', 'ya', 'selain', 'gula', 'obviously', 'ada', 'kandungan', 'lain', 'dari', 'minuman']</t>
+          <t>['teloor', 'kirimin', 'paku', 'dan', 'silet', 'aja', 'bro']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['teloor', 'kirimkan', 'paku', 'dan', 'silet', 'saja', 'bro']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['seger', 'banget', 'emang', 'siang', 'ditemani', 'minuman', 'bersoda', 'ati', 'gula', 'obviously', 'kandungan', 'minuman']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['seger', 'banget', 'emang', 'siang', 'tani', 'minum', 'soda', 'ati', 'gula', 'obviously', 'kandung', 'minum']</t>
+          <t>['teloor', 'kirimkan', 'paku', 'silet', 'bro']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['teloor', 'kirim', 'paku', 'silet', 'bro']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2239,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20573</v>
+        <v>24025</v>
       </c>
       <c r="C45" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ri kpk mana punya nyali buat obok klan baswedan dan klan makassarjaman ibas disebut seba</t>
+          <t>orang kaya dari mana nya biasa saja itu kumpulan mak rambut api</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['ri', 'kpk', 'mana', 'punya', 'nyali', 'buat', 'obok', 'klan', 'baswedan', 'dan', 'klan', 'makassarjaman', 'ibas', 'disebut', 'seba']</t>
+          <t>['orang', 'kaya', 'dari', 'mana', 'nya', 'biasa', 'saja', 'itu', 'kumpulan', 'mak', 'rambut', 'api']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['orang', 'kayak', 'dari', 'mana', 'nya', 'biasa', 'saja', 'itu', 'kumpulan', 'mak', 'rambut', 'api']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['ri', 'kpk', 'nyali', 'obok', 'klan', 'baswedan', 'klan', 'makassarjaman', 'ibas', 'seba']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['ri', 'kpk', 'nyali', 'obok', 'klan', 'baswedan', 'klan', 'makassarjaman', 'ibas', 'seba']</t>
+          <t>['orang', 'kayak', 'kumpulan', 'mak', 'rambut', 'api']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['orang', 'kayak', 'kumpul', 'mak', 'rambut', 'api']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2280,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20574</v>
+        <v>24026</v>
       </c>
       <c r="C46" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>rt jgn sembarang klik link jgn pula tergiur hrg murah penipu zaman skrg jg makin canggih mrk paham main selalu</t>
+          <t xml:space="preserve"> ini bagus</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['rt', 'jgn', 'sembarang', 'klik', 'link', 'jgn', 'pula', 'tergiur', 'hrg', 'murah', 'penipu', 'zaman', 'skrg', 'jg', 'makin', 'canggih', 'mrk', 'paham', 'main', 'selalu']</t>
+          <t>['ini', 'bagus']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['ini', 'bagus']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['sembarang', 'klik', 'link', 'tergiur', 'hrg', 'murah', 'penipu', 'zaman', 'skrg', 'jg', 'canggih', 'mrk', 'paham', 'main']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['sembarang', 'klik', 'link', 'giur', 'hrg', 'murah', 'tipu', 'zaman', 'skrg', 'jg', 'canggih', 'mrk', 'paham', 'main']</t>
+          <t>['bagus']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['bagus']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2321,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20575</v>
+        <v>24027</v>
       </c>
       <c r="C47" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt awas loh nanti dibilang bapa uskup murtad loh</t>
+          <t>ga sumbut ama badannya yg kekar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'awas', 'loh', 'nanti', 'dibilang', 'bapa', 'uskup', 'murtad', 'loh']</t>
+          <t>['ga', 'sumbut', 'ama', 'badannya', 'yg', 'kekar']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['tidak', 'sumbut', 'sama', 'badannya', 'yang', 'kekar']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['awas', 'dibilang', 'bapa', 'uskup', 'murtad']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['awas', 'bilang', 'bapa', 'uskup', 'murtad']</t>
+          <t>['sumbut', 'badannya', 'kekar']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['sumbut', 'badan', 'kekar']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2362,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20576</v>
+        <v>24028</v>
       </c>
       <c r="C48" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>rasulullah adil bila memberi contoh dengan tidak poli</t>
+          <t>ii minta jatah kalee</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['rasulullah', 'adil', 'bila', 'memberi', 'contoh', 'dengan', 'tidak', 'poli']</t>
+          <t>['ii', 'minta', 'jatah', 'kalee']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['ih', 'meminta', 'jatah', 'kali']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['rasulullah', 'adil', 'contoh', 'poli']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['rasulullah', 'adil', 'contoh', 'pol']</t>
+          <t>['ih', 'jatah', 'kali']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['ih', 'jatah', 'kali']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2403,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20577</v>
+        <v>24029</v>
       </c>
       <c r="C49" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>nakula berarti penangkapan karena sebuah skenario</t>
+          <t>bukan kah muhaimin orangnya jk yg kudeta pkb demi kepentingan sby itu dan jokowi tidak puny</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['nakula', 'berarti', 'penangkapan', 'karena', 'sebuah', 'skenario']</t>
+          <t>['bukan', 'kah', 'muhaimin', 'orangnya', 'jk', 'yg', 'kudeta', 'pkb', 'demi', 'kepentingan', 'sby', 'itu', 'dan', 'jokowi', 'tidak', 'puny']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bukan', 'kah', 'muhaimin', 'orangnya', 'jika', 'yang', 'kudeta', 'partai, kebangkitan, bangsa', 'demi', 'kepentingan', 'susilo, bambang, yudhoyono', 'itu', 'dan', 'jokowi', 'tidak', 'puny']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['nakula', 'penangkapan', 'skenario']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['nakula', 'tangkap', 'skenario']</t>
+          <t>['kah', 'muhaimin', 'orangnya', 'kudeta', 'partai, kebangkitan, bangsa', 'kepentingan', 'susilo, bambang, yudhoyono', 'jokowi', 'puny']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['kah', 'muhaimin', 'orang', 'kudeta', 'partai bangkit bangsa', 'penting', 'susilo bambang yudhoyono', 'jokowi', 'puny']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2444,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20578</v>
+        <v>24030</v>
       </c>
       <c r="C50" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>jangan lupakan chaplin</t>
+          <t>tomasowa nikah nya minta di istimewakan dan memakai fasilitas negara jelas aja kae</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['jangan', 'lupakan', 'chaplin']</t>
+          <t>['tomasowa', 'nikah', 'nya', 'minta', 'di', 'istimewakan', 'dan', 'memakai', 'fasilitas', 'negara', 'jelas', 'aja', 'kae']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['tomasowa', 'nikah', 'nya', 'meminta', 'di', 'istimewakan', 'dan', 'memakai', 'fasilitas', 'negara', 'jelas', 'saja', 'itu']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['lupakan', 'chaplin']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['lupa', 'chaplin']</t>
+          <t>['tomasowa', 'nikah', 'istimewakan', 'memakai', 'fasilitas', 'negara']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['tomasowa', 'nikah', 'istimewa', 'pakai', 'fasilitas', 'negara']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2485,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20579</v>
+        <v>24031</v>
       </c>
       <c r="C51" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt apakah adam beragama islam ataukah kristen atau yahudi sosok adam dipercaya oleh abrahamik sebagai manusia</t>
+          <t>issue ri nyelametin baswedan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'apakah', 'adam', 'beragama', 'islam', 'ataukah', 'kristen', 'atau', 'yahudi', 'sosok', 'adam', 'dipercaya', 'oleh', 'abrahamik', 'sebagai', 'manusia']</t>
+          <t>['issue', 'ri', 'nyelametin', 'baswedan']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['isu', 'ri', 'nyelametin', 'baswedan']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['adam', 'beragama', 'islam', 'kristen', 'yahudi', 'sosok', 'adam', 'dipercaya', 'abrahamik', 'manusia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['adam', 'agama', 'islam', 'kristen', 'yahudi', 'sosok', 'adam', 'percaya', 'abrahamik', 'manusia']</t>
+          <t>['isu', 'ri', 'nyelametin', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['isu', 'ri', 'nyelametin', 'baswedan']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2526,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20580</v>
+        <v>24032</v>
       </c>
       <c r="C52" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>mvllestari wong gendeng</t>
+          <t>mei btp yg ga mau punya besan offside</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['mvllestari', 'wong', 'gendeng']</t>
+          <t>['mei', 'btp', 'yg', 'ga', 'mau', 'punya', 'besan', 'offside']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['mei', 'ahok', 'yang', 'tidak', 'mau', 'punya', 'besan', 'offside']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['mvllestari', 'gendeng']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['mvllestari', 'gendeng']</t>
+          <t>['mei', 'ahok', 'besan', 'offside']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['mei', 'ahok', 'besan', 'offside']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2567,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20581</v>
+        <v>24033</v>
       </c>
       <c r="C53" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt christopel ledupoti anak sumba yg kibarkan bendera merah putih saat bpk presiden dtang ke sumba nk</t>
+          <t>kagak lah cowok masih banyak yg baik dna benar kam aja belum menemukan</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'christopel', 'ledupoti', 'anak', 'sumba', 'yg', 'kibarkan', 'bendera', 'merah', 'putih', 'saat', 'bpk', 'presiden', 'dtang', 'ke', 'sumba', 'nk']</t>
+          <t>['kagak', 'lah', 'cowok', 'masih', 'banyak', 'yg', 'baik', 'dna', 'benar', 'kam', 'aja', 'belum', 'menemukan']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['tidak', 'lah', 'cowok', 'masih', 'banyak', 'yang', 'baik', 'dna', 'benar', 'kamu', 'saja', 'belum', 'menemukan']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['christopel', 'ledupoti', 'anak', 'sumba', 'kibarkan', 'bendera', 'merah', 'putih', 'bpk', 'presiden', 'dtang', 'sumba', 'nk']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['christopel', 'ledupoti', 'anak', 'sumba', 'kibar', 'bendera', 'merah', 'putih', 'bpk', 'presiden', 'dtang', 'sumba', 'nk']</t>
+          <t>['cowok', 'dna', 'menemukan']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['cowok', 'dna', 'temu']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2608,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20582</v>
+        <v>24034</v>
       </c>
       <c r="C54" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>lho yg jelas didepan mata ratusan milyar dan udah tercium bertahun saja aman dan nyaman gitu eh yg baru</t>
+          <t>rt akhirnya nibiru telah mengumumkan dirinya sendiritanda yg jelas dari nibiru di dekatnya adalah penampakan matahari</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['lho', 'yg', 'jelas', 'didepan', 'mata', 'ratusan', 'milyar', 'dan', 'udah', 'tercium', 'bertahun', 'saja', 'aman', 'dan', 'nyaman', 'gitu', 'eh', 'yg', 'baru']</t>
+          <t>['rt', 'akhirnya', 'nibiru', 'telah', 'mengumumkan', 'dirinya', 'sendiritanda', 'yg', 'jelas', 'dari', 'nibiru', 'di', 'dekatnya', 'adalah', 'penampakan', 'matahari']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'akhirnya', 'nibiru', 'telah', 'mengumumkan', 'dirinya', 'sendiritanda', 'yang', 'jelas', 'dari', 'nibiru', 'di', 'dekatnya', 'adalah', 'penampakan', 'matahari']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['lho', 'didepan', 'mata', 'ratusan', 'milyar', 'udah', 'tercium', 'bertahun', 'aman', 'nyaman', 'gitu', 'eh']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['lho', 'depan', 'mata', 'ratus', 'milyar', 'udah', 'cium', 'tahun', 'aman', 'nyaman', 'gitu', 'eh']</t>
+          <t>['nibiru', 'mengumumkan', 'sendiritanda', 'nibiru', 'dekatnya', 'penampakan', 'matahari']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['nibiru', 'umum', 'sendiritanda', 'nibiru', 'dekat', 'tampak', 'matahari']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2649,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20583</v>
+        <v>24035</v>
       </c>
       <c r="C55" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ri siapa itu om</t>
+          <t>planet nibiru disebut planet ke dari tata surya bukan kah itu planet pluto ya</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['ri', 'siapa', 'itu', 'om']</t>
+          <t>['planet', 'nibiru', 'disebut', 'planet', 'ke', 'dari', 'tata', 'surya', 'bukan', 'kah', 'itu', 'planet', 'pluto', 'ya']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['planet', 'nibiru', 'disebut', 'planet', 'ke', 'dari', 'tata', 'surya', 'bukan', 'kah', 'itu', 'planet', 'pluto', 'ya']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['ri', 'om']</t>
+          <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['ri', 'om']</t>
+          <t>['planet', 'nibiru', 'planet', 'tata', 'surya', 'kah', 'planet', 'pluto']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['planet', 'nibiru', 'planet', 'tata', 'surya', 'kah', 'planet', 'pluto']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2690,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20584</v>
+        <v>24036</v>
       </c>
       <c r="C56" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>tanya saja sama chaplin</t>
+          <t>muhaimin adalah org nya jk yg disusupkan ke pkb demi kepentingan sby jokowi tidak punya kepenting</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['tanya', 'saja', 'sama', 'chaplin']</t>
+          <t>['muhaimin', 'adalah', 'org', 'nya', 'jk', 'yg', 'disusupkan', 'ke', 'pkb', 'demi', 'kepentingan', 'sby', 'jokowi', 'tidak', 'punya', 'kepenting']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['muhaimin', 'adalah', 'orang', 'nya', 'jika', 'yang', 'disusupkan', 'ke', 'partai, kebangkitan, bangsa', 'demi', 'kepentingan', 'susilo, bambang, yudhoyono', 'jokowi', 'tidak', 'punya', 'kepenting']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['chaplin']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['chaplin']</t>
+          <t>['muhaimin', 'orang', 'disusupkan', 'partai, kebangkitan, bangsa', 'kepentingan', 'susilo, bambang, yudhoyono', 'jokowi', 'kepenting']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['muhaimin', 'orang', 'susup', 'partai bangkit bangsa', 'penting', 'susilo bambang yudhoyono', 'jokowi', 'penting']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2731,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20585</v>
+        <v>24037</v>
       </c>
       <c r="C57" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>coba akun ini dibikin suspen dulu</t>
+          <t>bibir nya lancip pertanda org cerewet dan asal nyablak</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['coba', 'akun', 'ini', 'dibikin', 'suspen', 'dulu']</t>
+          <t>['bibir', 'nya', 'lancip', 'pertanda', 'org', 'cerewet', 'dan', 'asal', 'nyablak']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['bibir', 'nya', 'lancip', 'pertanda', 'orang', 'cerewet', 'dan', 'asal', 'nyablak']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['coba', 'akun', 'dibikin', 'suspen']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['coba', 'akun', 'bikin', 'suspen']</t>
+          <t>['bibir', 'lancip', 'pertanda', 'orang', 'cerewet', 'nyablak']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['bibir', 'lancip', 'tanda', 'orang', 'cerewet', 'nyablak']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2772,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20586</v>
+        <v>24038</v>
       </c>
       <c r="C58" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>halaahhhhhkalo soal selangkangan pasti halal kan</t>
+          <t>dumdum awas dilaporin kena uu ite</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['halaahhhhhkalo', 'soal', 'selangkangan', 'pasti', 'halal', 'kan']</t>
+          <t>['dumdum', 'awas', 'dilaporin', 'kena', 'uu', 'ite']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['dumdum', 'awas', 'dilaporkan', 'kena', 'undang, undang', 'informasi, transaksi, elektronik']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['halaahhhhhkalo', 'selangkangan', 'halal']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['halaahhhhhkalo', 'selangkang', 'halal']</t>
+          <t>['dumdum', 'awas', 'dilaporkan', 'kena', 'undang, undang', 'informasi, transaksi, elektronik']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['dumdum', 'awas', 'lapor', 'kena', 'undang undang', 'informasi transaksi elektronik']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2813,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20587</v>
+        <v>24039</v>
       </c>
       <c r="C59" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>suroboyo akeh salju tha kok fotonya pada pakai jaket bulu</t>
+          <t>dumdum ri cuman caper ke publik aja biar di anggap tidak mengistimewakan anies baswedan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['suroboyo', 'akeh', 'salju', 'tha', 'kok', 'fotonya', 'pada', 'pakai', 'jaket', 'bulu']</t>
+          <t>['dumdum', 'ri', 'cuman', 'caper', 'ke', 'publik', 'aja', 'biar', 'di', 'anggap', 'tidak', 'mengistimewakan', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['dumdum', 'ri', 'cuma', 'cari, perhatian', 'ke', 'publik', 'saja', 'biar', 'di', 'anggap', 'tidak', 'mengistimewakan', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['suroboyo', 'akeh', 'salju', 'tha', 'fotonya', 'pakai', 'jaket', 'bulu']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['suroboyo', 'akeh', 'salju', 'tha', 'foto', 'pakai', 'jaket', 'bulu']</t>
+          <t>['dumdum', 'ri', 'cari, perhatian', 'publik', 'anggap', 'mengistimewakan', 'anies', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['dumdum', 'ri', 'cari perhati', 'publik', 'anggap', 'istimewa', 'anies', 'baswedan']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2854,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20588</v>
+        <v>24040</v>
       </c>
       <c r="C60" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">rt jumlah pegawai ri saat ini sekitar orang dengan anggaran rp  cukup besar  milliar tp yg </t>
+          <t>kenalan donk</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'jumlah', 'pegawai', 'ri', 'saat', 'ini', 'sekitar', 'orang', 'dengan', 'anggaran', 'rp', 'cukup', 'besar', 'milliar', 'tp', 'yg']</t>
+          <t>['kenalan', 'donk']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['kenalan', 'dong']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['pegawai', 'ri', 'orang', 'anggaran', 'rp', 'milliar', 'tp']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['pegawai', 'ri', 'orang', 'anggar', 'rp', 'milliar', 'tp']</t>
+          <t>['kenalan']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['kenal']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2895,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20589</v>
+        <v>24041</v>
       </c>
       <c r="C61" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>mvllestari tanya chaplin aja</t>
+          <t>kuntadhi program keluar dari kantong kiri masuk ke kantong kanan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['mvllestari', 'tanya', 'chaplin', 'aja']</t>
+          <t>['kuntadhi', 'program', 'keluar', 'dari', 'kantong', 'kiri', 'masuk', 'ke', 'kantong', 'kanan']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['kuntadhi', 'program', 'keluar', 'dari', 'kantong', 'kiri', 'masuk', 'ke', 'kantong', 'kanan']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['mvllestari', 'chaplin']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['mvllestari', 'chaplin']</t>
+          <t>['kuntadhi', 'program', 'kantong', 'kiri', 'masuk', 'kantong', 'kanan']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['kuntadhi', 'program', 'kantong', 'kiri', 'masuk', 'kantong', 'kanan']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2936,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20590</v>
+        <v>24042</v>
       </c>
       <c r="C62" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ri sejak berdiri awal kpk itu di remote control seseorang yg kuat yg berada diluar organisasi kpk</t>
+          <t>menurutku sih hanya caper ke publik aja</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['ri', 'sejak', 'berdiri', 'awal', 'kpk', 'itu', 'di', 'remote', 'control', 'seseorang', 'yg', 'kuat', 'yg', 'berada', 'diluar', 'organisasi', 'kpk']</t>
+          <t>['menurutku', 'sih', 'hanya', 'caper', 'ke', 'publik', 'aja']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['menurutku', 'sih', 'hanya', 'cari, perhatian', 'ke', 'publik', 'saja']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['ri', 'berdiri', 'kpk', 'remote', 'control', 'kuat', 'diluar', 'organisasi', 'kpk']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['ri', 'diri', 'kpk', 'remote', 'control', 'kuat', 'luar', 'organisasi', 'kpk']</t>
+          <t>['menurutku', 'cari, perhatian', 'publik']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['turut', 'cari perhati', 'publik']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2977,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20591</v>
+        <v>24043</v>
       </c>
       <c r="C63" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">   </t>
+          <t>mvllestari yo iku jeneng  tuek nggateli</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mvllestari', 'yo', 'iku', 'jeneng', 'tuek', 'nggateli']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['mvllestari', 'iya', 'ikut', 'jeneng', 'tuek', 'nggateli']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mvllestari', 'iya', 'jeneng', 'tuek', 'nggateli']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['mvllestari', 'iya', 'jeneng', 'tuek', 'nggateli']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3018,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20592</v>
+        <v>24044</v>
       </c>
       <c r="C64" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>sajak siapa org dalam kpk yg disetir jk</t>
+          <t xml:space="preserve">     mulai dari first blood sampai last blood</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['sajak', 'siapa', 'org', 'dalam', 'kpk', 'yg', 'disetir', 'jk']</t>
+          <t>['mulai', 'dari', 'first', 'blood', 'sampai', 'last', 'blood']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mulai', 'dari', 'first', 'blood', 'sampai', 'last', 'blood']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['sajak', 'org', 'kpk', 'disetir', 'jk']</t>
+          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['sajak', 'org', 'kpk', 'setir', 'jk']</t>
+          <t>['first', 'blood', 'last', 'blood']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['first', 'blood', 'last', 'blood']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3059,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20593</v>
+        <v>24045</v>
       </c>
       <c r="C65" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>mrt perumpamaan yg bagus</t>
+          <t>tidak ada yg membongkar aibnya selain dirinya sendiri jargonnya keren buat nyindir felicia dan keluarga</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['mrt', 'perumpamaan', 'yg', 'bagus']</t>
+          <t>['tidak', 'ada', 'yg', 'membongkar', 'aibnya', 'selain', 'dirinya', 'sendiri', 'jargonnya', 'keren', 'buat', 'nyindir', 'felicia', 'dan', 'keluarga']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak', 'ada', 'yang', 'membongkar', 'aibnya', 'selain', 'dirinya', 'sendiri', 'jargonnya', 'keren', 'buat', 'menyindir', 'felicia', 'dan', 'keluarga']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['mrt', 'perumpamaan', 'bagus']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['mrt', 'umpama', 'bagus']</t>
+          <t>['membongkar', 'aibnya', 'jargonnya', 'keren', 'menyindir', 'felicia', 'keluarga']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['bongkar', 'aib', 'jargon', 'keren', 'sindir', 'felicia', 'keluarga']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3100,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20594</v>
+        <v>24046</v>
       </c>
       <c r="C66" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>korban klik bait</t>
+          <t>rt kita adalah pengacara yang baik bagi kesalahan kita tapi hakim yg tanpa ampun bagi kesalahan rang lain kuwot sore</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['korban', 'klik', 'bait']</t>
+          <t>['rt', 'kita', 'adalah', 'pengacara', 'yang', 'baik', 'bagi', 'kesalahan', 'kita', 'tapi', 'hakim', 'yg', 'tanpa', 'ampun', 'bagi', 'kesalahan', 'rang', 'lain', 'kuwot', 'sore']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'kita', 'adalah', 'pengacara', 'yang', 'baik', 'bagi', 'kesalahan', 'kita', 'tapi', 'hakim', 'yang', 'tanpa', 'ampun', 'bagi', 'kesalahan', 'rang', 'lain', 'kuwot', 'sore']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['korban', 'klik', 'bait']</t>
+          <t>&lt;FreqDist with 16 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['korban', 'klik', 'bait']</t>
+          <t>['pengacara', 'kesalahan', 'hakim', 'ampun', 'kesalahan', 'rang', 'kuwot', 'sore']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['acara', 'salah', 'hakim', 'ampun', 'salah', 'rang', 'kuwot', 'sore']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3141,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20595</v>
+        <v>24047</v>
       </c>
       <c r="C67" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ri gimana mau transformasi kalo semua staff kpk tidak diperbaharui terutam</t>
+          <t>mabuk janda mabuk kecubung nih</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['ri', 'gimana', 'mau', 'transformasi', 'kalo', 'semua', 'staff', 'kpk', 'tidak', 'diperbaharui', 'terutam']</t>
+          <t>['mabuk', 'janda', 'mabuk', 'kecubung', 'nih']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['mabuk', 'janda', 'mabuk', 'kecubung', 'nih']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['ri', 'gimana', 'transformasi', 'staff', 'kpk', 'diperbaharui', 'terutam']</t>
+          <t>&lt;FreqDist with 4 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['ri', 'gimana', 'transformasi', 'staff', 'kpk', 'baharu', 'terutam']</t>
+          <t>['mabuk', 'janda', 'mabuk', 'kecubung']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['mabuk', 'janda', 'mabuk', 'kecubung']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3182,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20596</v>
+        <v>24048</v>
       </c>
       <c r="C68" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>mokhtar salah kamar drun kadrun</t>
+          <t>monika kenalan donkahay</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['mokhtar', 'salah', 'kamar', 'drun', 'kadrun']</t>
+          <t>['monika', 'kenalan', 'donkahay']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['monika', 'kenalan', 'donkahay']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['mokhtar', 'salah', 'kamar', 'drun', 'kadrun']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['mokhtar', 'salah', 'kamar', 'drun', 'kadrun']</t>
+          <t>['monika', 'kenalan', 'donkahay']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['monika', 'kenal', 'donkahay']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3223,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20597</v>
+        <v>24049</v>
       </c>
       <c r="C69" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>maksudmu</t>
+          <t>art noted</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['maksudmu']</t>
+          <t>['art', 'noted']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['art', 'noted']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['maksudmu']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['maksud']</t>
+          <t>['art', 'noted']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['art', 'noted']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3264,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20598</v>
+        <v>24050</v>
       </c>
       <c r="C70" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>justru saat di tni pun saya ga respect krn saya yakin semua jabatan saat di tni murni bukan karena kemampuan ahy</t>
+          <t>ditunggu nyanyian merdunya</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['justru', 'saat', 'di', 'tni', 'pun', 'saya', 'ga', 'respect', 'krn', 'saya', 'yakin', 'semua', 'jabatan', 'saat', 'di', 'tni', 'murni', 'bukan', 'karena', 'kemampuan', 'ahy']</t>
+          <t>['ditunggu', 'nyanyian', 'merdunya']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
+          <t>['ditunggu', 'nyanyian', 'merdunya']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['tni', 'respect', 'jabatan', 'tni', 'murni', 'kemampuan', 'ahy']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['tni', 'respect', 'jabat', 'tni', 'murni', 'mampu', 'ahy']</t>
+          <t>['ditunggu', 'nyanyian', 'merdunya']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['tunggu', 'nyanyi', 'merdu']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3305,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20599</v>
+        <v>24051</v>
       </c>
       <c r="C71" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>klan cikeas lebih kejam dari klan cendana</t>
+          <t>art ada banyak nama anas urbaningrum di twitter dan semuanya beda foto</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['klan', 'cikeas', 'lebih', 'kejam', 'dari', 'klan', 'cendana']</t>
+          <t>['art', 'ada', 'banyak', 'nama', 'anas', 'urbaningrum', 'di', 'twitter', 'dan', 'semuanya', 'beda', 'foto']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['art', 'ada', 'banyak', 'nama', 'anas', 'urbaningrum', 'di', 'twitter', 'dan', 'semuanya', 'beda', 'foto']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['klan', 'cikeas', 'kejam', 'klan', 'cendana']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['klan', 'cikeas', 'kejam', 'klan', 'cendana']</t>
+          <t>['art', 'nama', 'anas', 'urbaningrum', 'twitter', 'beda', 'foto']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['art', 'nama', 'anas', 'urbaningrum', 'twitter', 'beda', 'foto']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3346,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20600</v>
+        <v>24052</v>
       </c>
       <c r="C72" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>sajak piala apa</t>
+          <t>art twitter nya mas anas urbaningrum mana yg valid</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['sajak', 'piala', 'apa']</t>
+          <t>['art', 'twitter', 'nya', 'mas', 'anas', 'urbaningrum', 'mana', 'yg', 'valid']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['art', 'twitter', 'nya', 'mas', 'anas', 'urbaningrum', 'mana', 'yang', 'valid']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['sajak', 'piala']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['sajak', 'piala']</t>
+          <t>['art', 'twitter', 'mas', 'anas', 'urbaningrum', 'valid']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['art', 'twitter', 'mas', 'anas', 'urbaningrum', 'valid']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3387,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20601</v>
+        <v>24053</v>
       </c>
       <c r="C73" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>bijinya dilipat dulu</t>
+          <t>ayoe idih mesum ini nyuruh laki nunjukkan kejantanan nya</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['bijinya', 'dilipat', 'dulu']</t>
+          <t>['ayoe', 'idih', 'mesum', 'ini', 'nyuruh', 'laki', 'nunjukkan', 'kejantanan', 'nya']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ayoe', 'idih', 'mesum', 'ini', 'menyuruh', 'laki', 'nunjukkan', 'kejantanan', 'nya']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['bijinya', 'dilipat']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['biji', 'lipat']</t>
+          <t>['ayoe', 'idih', 'mesum', 'menyuruh', 'laki', 'nunjukkan', 'kejantanan']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['ayoe', 'idih', 'mesum', 'suruh', 'laki', 'nunjukkan', 'jantan']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3428,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20602</v>
+        <v>24054</v>
       </c>
       <c r="C74" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>ayo bikin gerakan ras akun veronika koman</t>
+          <t>udah yakin sah untuk pd versi klb saya bertanya dengan posisi netral tanpa tendensi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['ayo', 'bikin', 'gerakan', 'ras', 'akun', 'veronika', 'koman']</t>
+          <t>['udah', 'yakin', 'sah', 'untuk', 'pd', 'versi', 'klb', 'saya', 'bertanya', 'dengan', 'posisi', 'netral', 'tanpa', 'tendensi']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['sudah', 'yakin', 'sah', 'untuk', 'pada', 'versi', 'klb', 'saya', 'bertanya', 'dengan', 'posisi', 'netral', 'tanpa', 'tendensi']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['ayo', 'gerakan', 'ras', 'akun', 'veronika', 'koman']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['ayo', 'gera', 'ras', 'akun', 'veronika', 'koman']</t>
+          <t>['sah', 'versi', 'klb', 'posisi', 'netral', 'tendensi']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['sah', 'versi', 'klb', 'posisi', 'netral', 'tendensi']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3469,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20603</v>
+        <v>24055</v>
       </c>
       <c r="C75" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>coba abang beli dan pakai celana jeans cewek seuprit gitu pasti efeknya dahsyat</t>
+          <t>ayoe karena cewek cantik ga mau naik motor mau nya naik mobil biar value nya naik</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['coba', 'abang', 'beli', 'dan', 'pakai', 'celana', 'jeans', 'cewek', 'seuprit', 'gitu', 'pasti', 'efeknya', 'dahsyat']</t>
+          <t>['ayoe', 'karena', 'cewek', 'cantik', 'ga', 'mau', 'naik', 'motor', 'mau', 'nya', 'naik', 'mobil', 'biar', 'value', 'nya', 'naik']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['ayoe', 'karena', 'cewek', 'cantik', 'tidak', 'mau', 'naik', 'motor', 'mau', 'nya', 'naik', 'mobil', 'biar', 'value', 'nya', 'naik']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['coba', 'abang', 'beli', 'pakai', 'celana', 'jeans', 'cewek', 'seuprit', 'gitu', 'efeknya', 'dahsyat']</t>
+          <t>&lt;FreqDist with 12 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['coba', 'abang', 'beli', 'pakai', 'celana', 'jeans', 'cewek', 'seuprit', 'gitu', 'efek', 'dahsyat']</t>
+          <t>['ayoe', 'cewek', 'cantik', 'motor', 'mobil', 'value']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['ayoe', 'cewek', 'cantik', 'motor', 'mobil', 'value']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3510,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20604</v>
+        <v>24056</v>
       </c>
       <c r="C76" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>djojoning astaga diseriusi</t>
+          <t>untung musuhnya bukan pandawa</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['djojoning', 'astaga', 'diseriusi']</t>
+          <t>['untung', 'musuhnya', 'bukan', 'pandawa']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['untung', 'musuhnya', 'bukan', 'pandawa']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['djojoning', 'astaga', 'diseriusi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['djojoning', 'astaga', 'serius']</t>
+          <t>['untung', 'musuhnya', 'pandawa']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['untung', 'musuh', 'pandawa']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3551,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20605</v>
+        <v>24057</v>
       </c>
       <c r="C77" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>id djojoning bahasa yahudi atau bahasa yunani</t>
+          <t>hambalang kan musium</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['id', 'djojoning', 'bahasa', 'yahudi', 'atau', 'bahasa', 'yunani']</t>
+          <t>['hambalang', 'kan', 'musium']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 7 outcomes&gt;</t>
+          <t>['hambalang', 'kan', 'musium']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['id', 'djojoning', 'bahasa', 'yahudi', 'bahasa', 'yunani']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['id', 'djojoning', 'bahasa', 'yahudi', 'bahasa', 'yunani']</t>
+          <t>['hambalang', 'musium']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['hambalang', 'musium']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3592,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20606</v>
+        <v>24058</v>
       </c>
       <c r="C78" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>dya tulang ekor</t>
+          <t>rt selamat yasatu dunia tertipu termasuk indonesia seorang pelajar wanita dalam kasus pemenggalan kartun nabi terbukti</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['dya', 'tulang', 'ekor']</t>
+          <t>['rt', 'selamat', 'yasatu', 'dunia', 'tertipu', 'termasuk', 'indonesia', 'seorang', 'pelajar', 'wanita', 'dalam', 'kasus', 'pemenggalan', 'kartun', 'nabi', 'terbukti']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['rt', 'selamat', 'yasatu', 'dunia', 'tertipu', 'termasuk', 'indonesia', 'seorang', 'pelajar', 'wanita', 'dalam', 'kasus', 'pemenggalan', 'kartun', 'nabi', 'terbukti']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['dya', 'tulang', 'ekor']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['dya', 'tulang', 'ekor']</t>
+          <t>['selamat', 'yasatu', 'dunia', 'tertipu', 'indonesia', 'pelajar', 'wanita', 'pemenggalan', 'kartun', 'nabi', 'terbukti']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['selamat', 'yasatu', 'dunia', 'tipu', 'indonesia', 'ajar', 'wanita', 'penggal', 'kartun', 'nabi', 'bukti']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3633,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20607</v>
+        <v>24059</v>
       </c>
       <c r="C79" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>orang ini bahaya karena mengundang kelompok taliban ke indonesia</t>
+          <t>kurangnya jatah pengairan itu</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['orang', 'ini', 'bahaya', 'karena', 'mengundang', 'kelompok', 'taliban', 'ke', 'indonesia']</t>
+          <t>['kurangnya', 'jatah', 'pengairan', 'itu']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['kurangnya', 'jatah', 'pengairan', 'itu']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['orang', 'bahaya', 'mengundang', 'kelompok', 'taliban', 'indonesia']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['orang', 'bahaya', 'undang', 'kelompok', 'talib', 'indonesia']</t>
+          <t>['kurangnya', 'jatah', 'pengairan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['kurang', 'jatah', 'air']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3674,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20608</v>
+        <v>24060</v>
       </c>
       <c r="C80" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kencing onta</t>
+          <t>goldenangel kadrun berjubah biru datanglah</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['kencing', 'onta']</t>
+          <t>['goldenangel', 'kadrun', 'berjubah', 'biru', 'datanglah']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['goldenangel', 'kadrun', 'berjubah', 'biru', 'datanglah']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kencing', 'onta']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['kencing', 'onta']</t>
+          <t>['goldenangel', 'kadrun', 'berjubah', 'biru', 'datanglah']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['goldenangel', 'kadrun', 'jubah', 'biru', 'datang']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3715,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20609</v>
+        <v>24061</v>
       </c>
       <c r="C81" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>mereka masih murni belum di masukkan virus khilafah</t>
+          <t>mungkin setoran wan abud macet</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['mereka', 'masih', 'murni', 'belum', 'di', 'masukkan', 'virus', 'khilafah']</t>
+          <t>['mungkin', 'setoran', 'wan', 'abud', 'macet']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['mungkin', 'setoran', 'wan', 'abud', 'macet']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['murni', 'masukkan', 'virus', 'khilafah']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['murni', 'masuk', 'virus', 'khilafah']</t>
+          <t>['setoran', 'wan', 'abud', 'macet']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['setor', 'wan', 'abud', 'macet']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3756,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20610</v>
+        <v>24062</v>
       </c>
       <c r="C82" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>monika dm aku juga</t>
+          <t>ya coba mama  felicia ga minta berlebihan dan sopan sama ibu  kaesang</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['monika', 'dm', 'aku', 'juga']</t>
+          <t>['ya', 'coba', 'mama', 'felicia', 'ga', 'minta', 'berlebihan', 'dan', 'sopan', 'sama', 'ibu', 'kaesang']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['ya', 'coba', 'mama', 'felicia', 'tidak', 'meminta', 'berlebihan', 'dan', 'sopan', 'sama', 'ibu', 'kaesang']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['monika', 'dm']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['monika', 'dm']</t>
+          <t>['coba', 'mama', 'felicia', 'sopan', 'kaesang']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['coba', 'mama', 'felicia', 'sopan', 'kaesang']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3797,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>20611</v>
+        <v>24063</v>
       </c>
       <c r="C83" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>presiden ga perlu debat dengan kera</t>
+          <t>pasti mbieb juga pengen nikahin suami orang nih</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['presiden', 'ga', 'perlu', 'debat', 'dengan', 'kera']</t>
+          <t>['pasti', 'mbieb', 'juga', 'pengen', 'nikahin', 'suami', 'orang', 'nih']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['pasti', 'mbieb', 'juga', 'ingin', 'nikahi', 'suami', 'orang', 'nih']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['presiden', 'debat', 'kera']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['presiden', 'debat', 'kera']</t>
+          <t>['mbieb', 'nikahi', 'suami', 'orang']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['mbieb', 'nikah', 'suami', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3838,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>20612</v>
+        <v>24064</v>
       </c>
       <c r="C84" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>pz kmu lucu tapi sayang nya ga lucu</t>
+          <t>berita lama jaman mau pilkada dki</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['pz', 'kmu', 'lucu', 'tapi', 'sayang', 'nya', 'ga', 'lucu']</t>
+          <t>['berita', 'lama', 'jaman', 'mau', 'pilkada', 'dki']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
+          <t>['berita', 'lama', 'jaman', 'mau', 'pilihan, kepala, daerah', 'daerah, khusus, ibukota']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['pz', 'kmu', 'lucu', 'sayang', 'lucu']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['pz', 'kmu', 'lucu', 'sayang', 'lucu']</t>
+          <t>['berita', 'jaman', 'pilihan, kepala, daerah', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['berita', 'jaman', 'pilih kepala daerah', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3879,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>20613</v>
+        <v>24065</v>
       </c>
       <c r="C85" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tanya sutradara penulis cerita horor</t>
+          <t>kenapa harus geizz kok ga sekalian tertuju ke anies baswedan</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['tanya', 'sutradara', 'penulis', 'cerita', 'horor']</t>
+          <t>['kenapa', 'harus', 'geizz', 'kok', 'ga', 'sekalian', 'tertuju', 'ke', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['kenapa', 'harus', 'geizz', 'kok', 'tidak', 'sekalian', 'tertuju', 'ke', 'anies', 'baswedan']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['sutradara', 'penulis', 'cerita', 'horor']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['sutradara', 'tulis', 'cerita', 'horor']</t>
+          <t>['geizz', 'anies', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['geizz', 'anies', 'baswedan']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3920,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>20614</v>
+        <v>24066</v>
       </c>
       <c r="C86" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>yg komen paling ga lebih dari ribu wni coba yg komen juta wni serempak bisa hang itu</t>
+          <t>wekeke kira gubernur anies terlibat kah</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['yg', 'komen', 'paling', 'ga', 'lebih', 'dari', 'ribu', 'wni', 'coba', 'yg', 'komen', 'juta', 'wni', 'serempak', 'bisa', 'hang', 'itu']</t>
+          <t>['wekeke', 'kira', 'gubernur', 'anies', 'terlibat', 'kah']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['wekeke', 'kira', 'gubernur', 'anies', 'terlibat', 'kah']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['komen', 'ribu', 'wni', 'coba', 'komen', 'juta', 'wni', 'serempak', 'hang']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['komen', 'ribu', 'wni', 'coba', 'komen', 'juta', 'wni', 'serempak', 'hang']</t>
+          <t>['wekeke', 'gubernur', 'anies', 'terlibat', 'kah']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['wekeke', 'gubernur', 'anies', 'libat', 'kah']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3961,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>20615</v>
+        <v>24067</v>
       </c>
       <c r="C87" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>id pacaran nikah kok ribet banget padahal cuman menyatukan kelamin yg berbeda mending ga usah beragama</t>
+          <t>atau</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['id', 'pacaran', 'nikah', 'kok', 'ribet', 'banget', 'padahal', 'cuman', 'menyatukan', 'kelamin', 'yg', 'berbeda', 'mending', 'ga', 'usah', 'beragama']</t>
+          <t>['atau']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['atau']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['id', 'pacaran', 'nikah', 'ribet', 'banget', 'cuman', 'menyatukan', 'kelamin', 'berbeda', 'mending', 'beragama']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['id', 'pacar', 'nikah', 'ribet', 'banget', 'cuman', 'satu', 'kelamin', 'beda', 'mending', 'agama']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3571,34 +4002,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>20616</v>
+        <v>24068</v>
       </c>
       <c r="C88" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>herianto prabu rg masak jokowi disuruh debat sama kera</t>
+          <t>ojok rondo susu ne wes kadaluarsa</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['herianto', 'prabu', 'rg', 'masak', 'jokowi', 'disuruh', 'debat', 'sama', 'kera']</t>
+          <t>['ojok', 'rondo', 'susu', 'ne', 'wes', 'kadaluarsa']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['ojok', 'rondo', 'susu', 'ini', 'sudah', 'kadaluarsa']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['herianto', 'prabu', 'rg', 'masak', 'jokowi', 'disuruh', 'debat', 'kera']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['herianto', 'prabu', 'rg', 'masak', 'jokowi', 'suruh', 'debat', 'kera']</t>
+          <t>['ojok', 'rondo', 'susu', 'kadaluarsa']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['ojok', 'rondo', 'susu', 'kadaluarsa']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +4043,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>20617</v>
+        <v>24069</v>
       </c>
       <c r="C89" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>coba tunjukkan ke dengkul zul</t>
+          <t>puncak muak nya pas acara lamaran sih dan sebenernya setelah acara lamaran tsb kaesang sudah ajak bica</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['coba', 'tunjukkan', 'ke', 'dengkul', 'zul']</t>
+          <t>['puncak', 'muak', 'nya', 'pas', 'acara', 'lamaran', 'sih', 'dan', 'sebenernya', 'setelah', 'acara', 'lamaran', 'tsb', 'kaesang', 'sudah', 'ajak', 'bica']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['puncak', 'muak', 'nya', 'pas', 'acara', 'lamaran', 'sih', 'dan', 'sebenarnya', 'setelah', 'acara', 'lamaran', 'tersebut', 'kaesang', 'sudah', 'ajak', 'bica']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['coba', 'tunjukkan', 'dengkul', 'zul']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['coba', 'tunjuk', 'dengkul', 'zul']</t>
+          <t>['puncak', 'muak', 'pas', 'acara', 'lamaran', 'acara', 'lamaran', 'kaesang', 'ajak', 'bica']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['puncak', 'muak', 'pas', 'acara', 'lamar', 'acara', 'lamar', 'kaesang', 'ajak', 'bica']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4084,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>20618</v>
+        <v>24070</v>
       </c>
       <c r="C90" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>jangan seperti anies baswedan dah gitu aja</t>
+          <t>segoroo ci gagal paham diriku</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['jangan', 'seperti', 'anies', 'baswedan', 'dah', 'gitu', 'aja']</t>
+          <t>['segoroo', 'ci', 'gagal', 'paham', 'diriku']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['segoroo', 'ci', 'gagal', 'paham', 'diriku']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['anies', 'baswedan', 'dah', 'gitu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['anies', 'baswedan', 'dah', 'gitu']</t>
+          <t>['segoroo', 'ci', 'gagal', 'paham', 'diriku']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['segoroo', 'ci', 'gagal', 'paham', 'diri']</t>
         </is>
       </c>
     </row>
@@ -3679,34 +4125,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>20619</v>
+        <v>24071</v>
       </c>
       <c r="C91" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>menteri peramal</t>
+          <t>kalo menurutku sih kaesang ga salah sepertinya dari awal pacaran itu mama  feli suka offside cuman ka</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['menteri', 'peramal']</t>
+          <t>['kalo', 'menurutku', 'sih', 'kaesang', 'ga', 'salah', 'sepertinya', 'dari', 'awal', 'pacaran', 'itu', 'mama', 'feli', 'suka', 'offside', 'cuman', 'ka']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kalau', 'menurutku', 'sih', 'kaesang', 'tidak', 'salah', 'sepertinya', 'dari', 'awal', 'pacaran', 'itu', 'mama', 'feli', 'suka', 'offside', 'cuma', 'kakak']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['menteri', 'peramal']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['menteri', 'amal']</t>
+          <t>['menurutku', 'kaesang', 'salah', 'pacaran', 'mama', 'feli', 'suka', 'offside', 'kakak']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['turut', 'kaesang', 'salah', 'pacar', 'mama', 'feli', 'suka', 'offside', 'kakak']</t>
         </is>
       </c>
     </row>
@@ -3715,34 +4166,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>20620</v>
+        <v>24072</v>
       </c>
       <c r="C92" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>beeeeee tidak hanya bentuk tapi juga bisa mempengaruhi rasa masakan kalo lagi rungseb</t>
+          <t>link mana om</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['beeeeee', 'tidak', 'hanya', 'bentuk', 'tapi', 'juga', 'bisa', 'mempengaruhi', 'rasa', 'masakan', 'kalo', 'lagi', 'rungseb']</t>
+          <t>['link', 'mana', 'om']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['link', 'mana', 'om']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['beeeeee', 'bentuk', 'mempengaruhi', 'masakan', 'rungseb']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['beeeeee', 'bentuk', 'pengaruh', 'masakan', 'rungseb']</t>
+          <t>['link', 'om']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['link', 'om']</t>
         </is>
       </c>
     </row>
@@ -3751,34 +4207,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>20621</v>
+        <v>24073</v>
       </c>
       <c r="C93" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>masuk klub siang boleh</t>
+          <t>terbalik lah mama  feli yg harus balikkan mobil dan stnk ke kaesang</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['masuk', 'klub', 'siang', 'boleh']</t>
+          <t>['terbalik', 'lah', 'mama', 'feli', 'yg', 'harus', 'balikkan', 'mobil', 'dan', 'stnk', 'ke', 'kaesang']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['terbalik', 'lah', 'mama', 'feli', 'yang', 'harus', 'balikkan', 'mobil', 'dan', 'stnk', 'ke', 'kaesang']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['masuk', 'klub', 'siang']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['masuk', 'klub', 'siang']</t>
+          <t>['terbalik', 'mama', 'feli', 'balikkan', 'mobil', 'stnk', 'kaesang']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['balik', 'mama', 'feli', 'balik', 'mobil', 'stnk', 'kaesang']</t>
         </is>
       </c>
     </row>
@@ -3787,34 +4248,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>20622</v>
+        <v>24074</v>
       </c>
       <c r="C94" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>beeeeee bikin kue itu kondisi hati dan perasaan harus senang tidak boleh sedih atau jengkel</t>
+          <t>gatot wong pedot saraf utek  yo ngunu iku rodok gendenglali karo mbiyen</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['beeeeee', 'bikin', 'kue', 'itu', 'kondisi', 'hati', 'dan', 'perasaan', 'harus', 'senang', 'tidak', 'boleh', 'sedih', 'atau', 'jengkel']</t>
+          <t>['gatot', 'wong', 'pedot', 'saraf', 'utek', 'yo', 'ngunu', 'iku', 'rodok', 'gendenglali', 'karo', 'mbiyen']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['gatot', 'orang', 'pedot', 'saraf', 'utek', 'iya', 'anu', 'ikut', 'rodok', 'gendenglali', 'sama', 'mbiyen']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['beeeeee', 'kue', 'kondisi', 'hati', 'perasaan', 'senang', 'sedih', 'jengkel']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['beeeeee', 'kue', 'kondisi', 'hati', 'asa', 'senang', 'sedih', 'jengkel']</t>
+          <t>['gatot', 'orang', 'pedot', 'saraf', 'utek', 'iya', 'anu', 'rodok', 'gendenglali', 'mbiyen']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['gatot', 'orang', 'pedot', 'saraf', 'utek', 'iya', 'anu', 'rodok', 'gendenglali', 'mbiyen']</t>
         </is>
       </c>
     </row>
@@ -3823,34 +4289,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>20623</v>
+        <v>24075</v>
       </c>
       <c r="C95" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>es aku pernah liat tampang pengurus dewan pers berjenggot dan jidat ada hitamnyaudah fix deh</t>
+          <t>kena auman singa</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['es', 'aku', 'pernah', 'liat', 'tampang', 'pengurus', 'dewan', 'pers', 'berjenggot', 'dan', 'jidat', 'ada', 'hitamnyaudah', 'fix', 'deh']</t>
+          <t>['kena', 'auman', 'singa']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['kena', 'auman', 'singa']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['es', 'liat', 'tampang', 'pengurus', 'dewan', 'pers', 'berjenggot', 'jidat', 'hitamnyaudah', 'fix', 'deh']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['es', 'liat', 'tampang', 'urus', 'dewan', 'pers', 'jenggot', 'jidat', 'hitamnyaudah', 'fix', 'deh']</t>
+          <t>['kena', 'auman', 'singa']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['kena', 'aum', 'singa']</t>
         </is>
       </c>
     </row>
@@ -3859,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>20624</v>
+        <v>24076</v>
       </c>
       <c r="C96" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ya selama ga diusir ya ga ganggukalo memang niatnya ngusir setidaknya cari kan tempat dulu buat makh</t>
+          <t>termasuk kematian mendadak saksi kasus hambalang setelah menyebut nama ibas itu harus diselidiki</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['ya', 'selama', 'ga', 'diusir', 'ya', 'ga', 'ganggukalo', 'memang', 'niatnya', 'ngusir', 'setidaknya', 'cari', 'kan', 'tempat', 'dulu', 'buat', 'makh']</t>
+          <t>['termasuk', 'kematian', 'mendadak', 'saksi', 'kasus', 'hambalang', 'setelah', 'menyebut', 'nama', 'ibas', 'itu', 'harus', 'diselidiki']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['termasuk', 'kematian', 'mendadak', 'saksi', 'kasus', 'hambalang', 'setelah', 'menyebut', 'nama', 'ibas', 'itu', 'harus', 'diselidiki']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['diusir', 'ganggukalo', 'niatnya', 'ngusir', 'cari', 'makh']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['usir', 'ganggukalo', 'niat', 'ngusir', 'cari', 'makh']</t>
+          <t>['kematian', 'mendadak', 'saksi', 'hambalang', 'menyebut', 'nama', 'ibas', 'diselidiki']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['mati', 'dadak', 'saksi', 'hambalang', 'sebut', 'nama', 'ibas', 'selidik']</t>
         </is>
       </c>
     </row>
@@ -3895,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>20625</v>
+        <v>24077</v>
       </c>
       <c r="C97" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t xml:space="preserve">es hadehhh itu cuman teori fakta nya tuh wartawan tempo aman saja apalagi perusahaan tempo </t>
+          <t>koko perampas partai orang disingkat pepo</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['es', 'hadehhh', 'itu', 'cuman', 'teori', 'fakta', 'nya', 'tuh', 'wartawan', 'tempo', 'aman', 'saja', 'apalagi', 'perusahaan', 'tempo']</t>
+          <t>['koko', 'perampas', 'partai', 'orang', 'disingkat', 'pepo']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['koko', 'perampas', 'partai', 'orang', 'disingkat', 'pepo']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['es', 'hadehhh', 'cuman', 'teori', 'fakta', 'wartawan', 'tempo', 'aman', 'perusahaan', 'tempo']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['es', 'hadehhh', 'cuman', 'teori', 'fakta', 'wartawan', 'tempo', 'aman', 'usaha', 'tempo']</t>
+          <t>['koko', 'perampas', 'partai', 'orang', 'disingkat', 'pepo']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['koko', 'ampas', 'partai', 'orang', 'singkat', 'pepo']</t>
         </is>
       </c>
     </row>
@@ -3931,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>20626</v>
+        <v>24078</v>
       </c>
       <c r="C98" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>itu kan sudah termasuk hoax dan fitnah kenapa ga dilaporkan</t>
+          <t>soto lamongan yg di surabaya ga ada bau amis nya kalo ada bau amis ga bakal laris karena lidah org su</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['itu', 'kan', 'sudah', 'termasuk', 'hoax', 'dan', 'fitnah', 'kenapa', 'ga', 'dilaporkan']</t>
+          <t>['soto', 'lamongan', 'yg', 'di', 'surabaya', 'ga', 'ada', 'bau', 'amis', 'nya', 'kalo', 'ada', 'bau', 'amis', 'ga', 'bakal', 'laris', 'karena', 'lidah', 'org', 'su']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['soto', 'lamongan', 'yang', 'di', 'surabaya', 'tidak', 'ada', 'bau', 'amis', 'nya', 'kalau', 'ada', 'bau', 'amis', 'tidak', 'bakal', 'laris', 'karena', 'lidah', 'orang', 'su']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['hoax', 'fitnah', 'dilaporkan']</t>
+          <t>&lt;FreqDist with 17 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['hoax', 'fitnah', 'lapor']</t>
+          <t>['soto', 'lamongan', 'surabaya', 'bau', 'amis', 'bau', 'amis', 'laris', 'lidah', 'orang', 'su']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['soto', 'lamongan', 'surabaya', 'bau', 'amis', 'bau', 'amis', 'laris', 'lidah', 'orang', 'su']</t>
         </is>
       </c>
     </row>
@@ -3967,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>20627</v>
+        <v>24079</v>
       </c>
       <c r="C99" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>mei berarti orang nu nya ngadrun donk</t>
+          <t>alaidid atau bisa ke hotman paris</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['mei', 'berarti', 'orang', 'nu', 'nya', 'ngadrun', 'donk']</t>
+          <t>['alaidid', 'atau', 'bisa', 'ke', 'hotman', 'paris']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['alaidid', 'atau', 'bisa', 'ke', 'hotman', 'paris']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['mei', 'orang', 'nu', 'ngadrun', 'donk']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['mei', 'orang', 'nu', 'ngadrun', 'donk']</t>
+          <t>['alaidid', 'hotman', 'paris']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['alaidid', 'hotman', 'paris']</t>
         </is>
       </c>
     </row>
@@ -4003,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>20628</v>
+        <v>24080</v>
       </c>
       <c r="C100" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>chang notodiputro kenapa dengan papua dan borneo</t>
+          <t>terong why</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['chang', 'notodiputro', 'kenapa', 'dengan', 'papua', 'dan', 'borneo']</t>
+          <t>['terong', 'why']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['terong', 'kenapa']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['chang', 'notodiputro', 'papua', 'borneo']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['chang', 'notodiputro', 'papua', 'borneo']</t>
+          <t>['terong']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['terong']</t>
         </is>
       </c>
     </row>
@@ -4039,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>20629</v>
+        <v>24081</v>
       </c>
       <c r="C101" t="n">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>halaman belakang rumahku ada gendruwo kuntilanak malah tiap hari ngeliat</t>
+          <t>sikat gigi dulu om baru pidato</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['halaman', 'belakang', 'rumahku', 'ada', 'gendruwo', 'kuntilanak', 'malah', 'tiap', 'hari', 'ngeliat']</t>
+          <t>['sikat', 'gigi', 'dulu', 'om', 'baru', 'pidato']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['sikat', 'gigi', 'dulu', 'om', 'baru', 'pidato']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['halaman', 'rumahku', 'gendruwo', 'kuntilanak', 'ngeliat']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['halaman', 'rumah', 'gendruwo', 'kuntilanak', 'ngeliat']</t>
+          <t>['sikat', 'gigi', 'om', 'pidato']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['sikat', 'gigi', 'om', 'pidato']</t>
         </is>
       </c>
     </row>
